--- a/biology/Médecine/1894_en_santé_et_médecine/1894_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1894_en_santé_et_médecine/1894_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1894_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1894_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1894 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1894_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1894_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er février-24 juillet : Émile Roux, assisté de Louis Martin et d'Auguste Chaillou testent l'efficacité thérapeutique du sérum antidiphtérique sur des enfants à l'Hôpital des Enfants-Malades[1]. Ils communiquent leurs résultats sur la sérothérapie au Congrès international d'Hygiène tenu à Budapest au début de septembre[2].
-10 mai : épidémie de peste attestée à Hong Kong en Chine[3]. Elle gagne l’Afrique, les îles du Pacifique, l’Australie, le continent américain et atteint San Francisco en 1900.
-20 juin : le médecin et bactériologiste français Alexandre Yersin découvre à Hong Kong le bacille de la peste bubonique (Yersinia pestis). Le Japonais Kitasato Shibasaburō décrit indépendamment le bacille lors de ses recherches à Hong Kong la même année[4].
-Albert Calmette, revenu en France, met au point les premiers antivenins contre les morsures de serpent en utilisant des sérums de chevaux vaccinés et immunisés (le sérum de Calmette)[5].
-Description de la maladie de Binswanger par le psychiatre suisse Otto Binswanger[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er février-24 juillet : Émile Roux, assisté de Louis Martin et d'Auguste Chaillou testent l'efficacité thérapeutique du sérum antidiphtérique sur des enfants à l'Hôpital des Enfants-Malades. Ils communiquent leurs résultats sur la sérothérapie au Congrès international d'Hygiène tenu à Budapest au début de septembre.
+10 mai : épidémie de peste attestée à Hong Kong en Chine. Elle gagne l’Afrique, les îles du Pacifique, l’Australie, le continent américain et atteint San Francisco en 1900.
+20 juin : le médecin et bactériologiste français Alexandre Yersin découvre à Hong Kong le bacille de la peste bubonique (Yersinia pestis). Le Japonais Kitasato Shibasaburō décrit indépendamment le bacille lors de ses recherches à Hong Kong la même année.
+Albert Calmette, revenu en France, met au point les premiers antivenins contre les morsures de serpent en utilisant des sérums de chevaux vaccinés et immunisés (le sérum de Calmette).
+Description de la maladie de Binswanger par le psychiatre suisse Otto Binswanger.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1894_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1894_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>6 février : Theodor Billroth (né en 1829), chirurgien allemand.
 2 avril : Charles-Édouard Brown-Séquard (né en 1817), physiologiste et neurologue français, né britannique.
 16 avril : Joseph-Charles Taché (né en 1820), écrivain, homme politique, journaliste et médecin québécois.
-7 octobre : Oliver Wendell Holmes (né en 1809), écrivain, médecin, essayiste et poète américain[7].</t>
+7 octobre : Oliver Wendell Holmes (né en 1809), écrivain, médecin, essayiste et poète américain.</t>
         </is>
       </c>
     </row>
